--- a/001CourseWare/Review/Review Schedule.xlsx
+++ b/001CourseWare/Review/Review Schedule.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>DL LEC</t>
   </si>
@@ -48,13 +61,22 @@
     <t>L1</t>
   </si>
   <si>
-    <t>L10</t>
-  </si>
-  <si>
-    <t>MCQ4</t>
-  </si>
-  <si>
-    <t>EXAM</t>
+    <t>ISD背诵</t>
+  </si>
+  <si>
+    <t>DWC背诵</t>
+  </si>
+  <si>
+    <t>DSP背诵</t>
+  </si>
+  <si>
+    <t>DL背诵</t>
+  </si>
+  <si>
+    <t>ISD背诵+做题</t>
+  </si>
+  <si>
+    <t>DL背诵+做题</t>
   </si>
   <si>
     <t>DeepLearning 9:30-11:30</t>
@@ -84,22 +106,10 @@
     <t>L2</t>
   </si>
   <si>
-    <t>L1-L2</t>
-  </si>
-  <si>
-    <t>MCQ5</t>
-  </si>
-  <si>
     <t>TT3</t>
   </si>
   <si>
     <t>L3</t>
-  </si>
-  <si>
-    <t>L3-L4</t>
-  </si>
-  <si>
-    <t>MCQ6</t>
   </si>
   <si>
     <t>L9</t>
@@ -122,57 +132,74 @@
     <t>L4</t>
   </si>
   <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L1-L2</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>ISD做题</t>
+  </si>
+  <si>
+    <t>DWC做题</t>
+  </si>
+  <si>
+    <t>DSP做题</t>
+  </si>
+  <si>
+    <t>DL做题</t>
+  </si>
+  <si>
+    <t>DWC背诵+做题</t>
+  </si>
+  <si>
+    <t>DSP
+背诵+做题</t>
+  </si>
+  <si>
+    <t>ISD 背诵+做题</t>
+  </si>
+  <si>
+    <t>L3-L4</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
     <t>L5-L6</t>
   </si>
   <si>
-    <t>MCQ7</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>L5</t>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>TT8</t>
+  </si>
+  <si>
+    <t>DL
+MCQ8-11</t>
   </si>
   <si>
     <t>L7-L8</t>
   </si>
   <si>
-    <t>MCQ8</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>L9-L10</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>MCQ1</t>
-  </si>
-  <si>
-    <t>L12</t>
-  </si>
-  <si>
-    <t>TT8</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>MCQ2</t>
-  </si>
-  <si>
     <t>L13</t>
   </si>
   <si>
-    <t>MCQ3</t>
-  </si>
-  <si>
     <t>DWC NOTE</t>
   </si>
   <si>
@@ -189,18 +216,6 @@
   </si>
   <si>
     <t>ISD NOTE</t>
-  </si>
-  <si>
-    <t>ISD EXAM</t>
-  </si>
-  <si>
-    <t>DL NOTE</t>
-  </si>
-  <si>
-    <t>DL MCQ</t>
-  </si>
-  <si>
-    <t>DL EXAM</t>
   </si>
   <si>
     <t>ISD AND DWC
@@ -215,17 +230,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,6 +417,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,18 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,133 +963,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,16 +1130,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,74 +1163,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1223,17 +1208,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1549,7 +1570,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J20"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1715,131 +1736,125 @@
       <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="29">
-        <v>1</v>
-      </c>
-      <c r="N3" s="29">
-        <v>3</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="30" t="s">
+      <c r="M3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="O3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="43" t="s">
+      <c r="Q3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="44" t="s">
+      <c r="S3" s="34" t="s">
         <v>14</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="44"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="28" t="s">
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="30" t="s">
+      <c r="I5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="J5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="37"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="5">
@@ -1848,696 +1863,670 @@
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>13</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="30" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="20"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="18"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48" t="s">
+      <c r="V8" s="41" t="s">
         <v>29</v>
-      </c>
-      <c r="V8" s="49" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>15</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="28" t="s">
+      <c r="M9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="50"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="50"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>17</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
+      <c r="F11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="28" t="s">
+      <c r="M11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="P11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="20"/>
+      <c r="Q11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="18"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37">
-        <v>2</v>
-      </c>
-      <c r="N12" s="37">
-        <v>4</v>
-      </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>19</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="20"/>
+      <c r="I13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="18"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>20</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="18"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>21</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="20"/>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="18"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>22</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="18"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5">
         <v>23</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="20"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="18"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5">
         <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="20"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="C21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" s="41" t="s">
+      <c r="L21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="53" t="s">
+      <c r="M21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="U21" s="53" t="s">
+      <c r="U21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="17"/>
+      <c r="V21" s="15"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="17"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="15"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="17"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="15"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="17"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="120">
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2622,40 +2611,27 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M3:M11"/>
-    <mergeCell ref="M12:M20"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M20"/>
     <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N3:N11"/>
-    <mergeCell ref="N12:N20"/>
+    <mergeCell ref="N3:N10"/>
+    <mergeCell ref="N11:N20"/>
     <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O3:O10"/>
+    <mergeCell ref="O11:O20"/>
     <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P3:P10"/>
+    <mergeCell ref="P11:P20"/>
     <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q20"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="Q11:Q20"/>
     <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R3:R20"/>
+    <mergeCell ref="R3:R10"/>
+    <mergeCell ref="R11:R20"/>
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S3:S10"/>
     <mergeCell ref="S11:S20"/>
@@ -2665,6 +2641,8 @@
     <mergeCell ref="T21:T24"/>
     <mergeCell ref="U3:U6"/>
     <mergeCell ref="U8:U10"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="U16:U20"/>
     <mergeCell ref="U21:U24"/>
     <mergeCell ref="V3:V6"/>
     <mergeCell ref="V8:V10"/>
